--- a/Notion data/Thưởng phạt.xlsx
+++ b/Notion data/Thưởng phạt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>object</t>
   </si>
@@ -163,27 +163,45 @@
     <t>page</t>
   </si>
   <si>
+    <t>f1df828e-4b4e-4cec-93fb-1de41e0d82f5</t>
+  </si>
+  <si>
+    <t>92e7be0e-24c6-42ca-ba2c-65a7ecc68882</t>
+  </si>
+  <si>
     <t>5b5a12cb-1f5b-4c2a-9a66-e196a6486f80</t>
   </si>
   <si>
+    <t>2024-08-03T21:21:00.000Z</t>
+  </si>
+  <si>
     <t>2024-07-26T07:25:00.000Z</t>
   </si>
   <si>
+    <t>2024-08-03T21:22:00.000Z</t>
+  </si>
+  <si>
     <t>2024-07-31T17:46:00.000Z</t>
   </si>
   <si>
+    <t>https://www.notion.so/TP-9-f1df828e4b4e4cec93fb1de41e0d82f5</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/TP-8-92e7be0e24c642caba2c65a7ecc68882</t>
+  </si>
+  <si>
     <t>https://www.notion.so/TP-7-5b5a12cb1f5b4c2a9a66e196a6486f80</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
+    <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+  </si>
+  <si>
     <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
   </si>
   <si>
-    <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
-  </si>
-  <si>
     <t>database_id</t>
   </si>
   <si>
@@ -202,12 +220,21 @@
     <t>select</t>
   </si>
   <si>
+    <t>ffsF</t>
+  </si>
+  <si>
     <t>@D=Z</t>
   </si>
   <si>
+    <t>Thưởng</t>
+  </si>
+  <si>
     <t>Phạt</t>
   </si>
   <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>red</t>
   </si>
   <si>
@@ -223,6 +250,9 @@
     <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
   </si>
   <si>
+    <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+  </si>
+  <si>
     <t>show_original</t>
   </si>
   <si>
@@ -241,6 +271,12 @@
     <t>relation</t>
   </si>
   <si>
+    <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
+  </si>
+  <si>
     <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
   </si>
   <si>
@@ -250,6 +286,12 @@
     <t>date</t>
   </si>
   <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+  </si>
+  <si>
     <t>2024-07-26</t>
   </si>
   <si>
@@ -259,10 +301,22 @@
     <t>rich_text</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[{'type': 'text', 'text': {'content': 'ggggg', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'ggggg', 'href': None}]</t>
+  </si>
+  <si>
     <t>[{'type': 'text', 'text': {'content': 'vắng không lí do', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'vắng không lí do', 'href': None}]</t>
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>[{'type': 'text', 'text': {'content': 'TP-9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-9', 'href': None}]</t>
+  </si>
+  <si>
+    <t>[{'type': 'text', 'text': {'content': 'TP-8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-8', 'href': None}]</t>
   </si>
   <si>
     <t>[{'type': 'text', 'text': {'content': 'TP-7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-7', 'href': None}]</t>
@@ -636,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,10 +850,10 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -808,120 +862,384 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="S2">
-        <v>300000</v>
+        <v>4000000</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="V2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="W2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="b">
         <v>0</v>
       </c>
       <c r="AL2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3">
+        <v>4000000</v>
+      </c>
+      <c r="T3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AB3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG3">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4">
+        <v>300000</v>
+      </c>
+      <c r="T4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB4" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AC4" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AD4" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AE4" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AF4" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AG4">
+        <v>7</v>
+      </c>
+      <c r="AH4" t="s">
         <v>83</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Thưởng phạt.xlsx
+++ b/Notion data/Thưởng phạt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>object</t>
   </si>
@@ -163,45 +163,27 @@
     <t>page</t>
   </si>
   <si>
-    <t>f1df828e-4b4e-4cec-93fb-1de41e0d82f5</t>
-  </si>
-  <si>
-    <t>92e7be0e-24c6-42ca-ba2c-65a7ecc68882</t>
-  </si>
-  <si>
     <t>5b5a12cb-1f5b-4c2a-9a66-e196a6486f80</t>
   </si>
   <si>
-    <t>2024-08-03T21:21:00.000Z</t>
-  </si>
-  <si>
     <t>2024-07-26T07:25:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T21:22:00.000Z</t>
-  </si>
-  <si>
     <t>2024-07-31T17:46:00.000Z</t>
   </si>
   <si>
-    <t>https://www.notion.so/TP-9-f1df828e4b4e4cec93fb1de41e0d82f5</t>
-  </si>
-  <si>
-    <t>https://www.notion.so/TP-8-92e7be0e24c642caba2c65a7ecc68882</t>
-  </si>
-  <si>
     <t>https://www.notion.so/TP-7-5b5a12cb1f5b4c2a9a66e196a6486f80</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
+    <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+  </si>
+  <si>
     <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
   </si>
   <si>
-    <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
-  </si>
-  <si>
     <t>database_id</t>
   </si>
   <si>
@@ -220,21 +202,12 @@
     <t>select</t>
   </si>
   <si>
-    <t>ffsF</t>
-  </si>
-  <si>
     <t>@D=Z</t>
   </si>
   <si>
-    <t>Thưởng</t>
-  </si>
-  <si>
     <t>Phạt</t>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
@@ -250,9 +223,6 @@
     <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
   </si>
   <si>
-    <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
-  </si>
-  <si>
     <t>show_original</t>
   </si>
   <si>
@@ -271,12 +241,6 @@
     <t>relation</t>
   </si>
   <si>
-    <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
-  </si>
-  <si>
     <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
   </si>
   <si>
@@ -286,12 +250,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>2024-08-05</t>
-  </si>
-  <si>
-    <t>2024-08-06</t>
-  </si>
-  <si>
     <t>2024-07-26</t>
   </si>
   <si>
@@ -301,22 +259,10 @@
     <t>rich_text</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[{'type': 'text', 'text': {'content': 'ggggg', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'ggggg', 'href': None}]</t>
-  </si>
-  <si>
     <t>[{'type': 'text', 'text': {'content': 'vắng không lí do', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'vắng không lí do', 'href': None}]</t>
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>[{'type': 'text', 'text': {'content': 'TP-9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-9', 'href': None}]</t>
-  </si>
-  <si>
-    <t>[{'type': 'text', 'text': {'content': 'TP-8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-8', 'href': None}]</t>
   </si>
   <si>
     <t>[{'type': 'text', 'text': {'content': 'TP-7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-7', 'href': None}]</t>
@@ -690,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,10 +796,10 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -862,384 +808,120 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2">
+        <v>300000</v>
+      </c>
+      <c r="T2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="X2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
         <v>65</v>
       </c>
-      <c r="S2">
-        <v>4000000</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>66</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>67</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AC2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" t="s">
         <v>70</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AG2">
+        <v>7</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AJ2" t="s">
         <v>75</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2">
-        <v>9</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>85</v>
       </c>
       <c r="AK2" t="b">
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AM2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AN2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AQ2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AR2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AS2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="AU2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="AV2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3">
-        <v>4000000</v>
-      </c>
-      <c r="T3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG3">
-        <v>8</v>
-      </c>
-      <c r="AH3" t="s">
         <v>83</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4">
-        <v>300000</v>
-      </c>
-      <c r="T4" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" t="s">
-        <v>67</v>
-      </c>
-      <c r="V4" t="s">
-        <v>69</v>
-      </c>
-      <c r="W4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG4">
-        <v>7</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Thưởng phạt.xlsx
+++ b/Notion data/Thưởng phạt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>object</t>
   </si>
@@ -160,21 +160,51 @@
     <t>properties.Mã thưởng phạt.title</t>
   </si>
   <si>
+    <t>properties.Loại.select</t>
+  </si>
+  <si>
     <t>page</t>
   </si>
   <si>
+    <t>d998e336-8b66-410e-beaa-f1d9fb15ee06</t>
+  </si>
+  <si>
+    <t>acfc9ac1-f2af-4fea-b77e-e1fc97b7937a</t>
+  </si>
+  <si>
     <t>5b5a12cb-1f5b-4c2a-9a66-e196a6486f80</t>
   </si>
   <si>
+    <t>2024-08-22T10:42:00.000Z</t>
+  </si>
+  <si>
     <t>2024-07-26T07:25:00.000Z</t>
   </si>
   <si>
+    <t>2024-08-22T10:43:00.000Z</t>
+  </si>
+  <si>
     <t>2024-07-31T17:46:00.000Z</t>
   </si>
   <si>
+    <t>https://www.notion.so/TP-11-d998e3368b66410ebeaaf1d9fb15ee06</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/acfc9ac1f2af4feab77ee1fc97b7937a</t>
+  </si>
+  <si>
     <t>https://www.notion.so/TP-7-5b5a12cb1f5b4c2a9a66e196a6486f80</t>
   </si>
   <si>
+    <t>https://salty-handsaw-797.notion.site/TP-11-d998e3368b66410ebeaaf1d9fb15ee06</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/acfc9ac1f2af4feab77ee1fc97b7937a</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/TP-7-5b5a12cb1f5b4c2a9a66e196a6486f80</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -223,6 +253,9 @@
     <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>show_original</t>
   </si>
   <si>
@@ -250,6 +283,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
     <t>2024-07-26</t>
   </si>
   <si>
@@ -259,10 +295,16 @@
     <t>rich_text</t>
   </si>
   <si>
+    <t>[{'type': 'text', 'text': {'content': 'Vắng không phép', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Vắng không phép', 'href': None}]</t>
+  </si>
+  <si>
     <t>[{'type': 'text', 'text': {'content': 'vắng không lí do', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'vắng không lí do', 'href': None}]</t>
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>[{'type': 'text', 'text': {'content': 'TP-11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-11', 'href': None}]</t>
   </si>
   <si>
     <t>[{'type': 'text', 'text': {'content': 'TP-7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-7', 'href': None}]</t>
@@ -636,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,19 +829,22 @@
       <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -808,120 +853,384 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="S2">
         <v>300000</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AF2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AG2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AI2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="b">
         <v>0</v>
       </c>
       <c r="AL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AA3" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AB3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4">
+        <v>300000</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" t="s">
         <v>78</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AC4" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AD4" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AE4" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AF4" t="s">
         <v>83</v>
+      </c>
+      <c r="AG4">
+        <v>7</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Thưởng phạt.xlsx
+++ b/Notion data/Thưởng phạt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
   <si>
     <t>object</t>
   </si>
@@ -166,6 +166,9 @@
     <t>page</t>
   </si>
   <si>
+    <t>32f0f81a-f3dd-473d-a17e-a472823fd4bc</t>
+  </si>
+  <si>
     <t>d998e336-8b66-410e-beaa-f1d9fb15ee06</t>
   </si>
   <si>
@@ -175,18 +178,27 @@
     <t>5b5a12cb-1f5b-4c2a-9a66-e196a6486f80</t>
   </si>
   <si>
+    <t>2024-08-26T06:58:00.000Z</t>
+  </si>
+  <si>
     <t>2024-08-22T10:42:00.000Z</t>
   </si>
   <si>
     <t>2024-07-26T07:25:00.000Z</t>
   </si>
   <si>
+    <t>2024-08-26T06:59:00.000Z</t>
+  </si>
+  <si>
     <t>2024-08-22T10:43:00.000Z</t>
   </si>
   <si>
     <t>2024-07-31T17:46:00.000Z</t>
   </si>
   <si>
+    <t>https://www.notion.so/TP-12-32f0f81af3dd473da17ea472823fd4bc</t>
+  </si>
+  <si>
     <t>https://www.notion.so/TP-11-d998e3368b66410ebeaaf1d9fb15ee06</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>https://www.notion.so/TP-7-5b5a12cb1f5b4c2a9a66e196a6486f80</t>
   </si>
   <si>
+    <t>https://salty-handsaw-797.notion.site/TP-12-32f0f81af3dd473da17ea472823fd4bc</t>
+  </si>
+  <si>
     <t>https://salty-handsaw-797.notion.site/TP-11-d998e3368b66410ebeaaf1d9fb15ee06</t>
   </si>
   <si>
@@ -283,6 +298,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
     <t>2024-08-22</t>
   </si>
   <si>
@@ -302,6 +320,9 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>[{'type': 'text', 'text': {'content': 'TP-12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-12', 'href': None}]</t>
   </si>
   <si>
     <t>[{'type': 'text', 'text': {'content': 'TP-11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TP-11', 'href': None}]</t>
@@ -678,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW4"/>
+  <dimension ref="A1:AW5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,10 +862,10 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -853,118 +874,118 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S2">
         <v>300000</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AB2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AE2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AF2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AG2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AK2" t="b">
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AM2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AN2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AQ2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AR2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AS2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AT2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AU2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AV2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -975,10 +996,10 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -987,106 +1008,118 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="S3">
+        <v>300000</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" t="s">
+        <v>79</v>
       </c>
       <c r="Y3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AE3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AG3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK3" t="b">
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AM3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AN3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AQ3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AR3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AS3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AT3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AU3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AV3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:49">
@@ -1097,10 +1130,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1109,118 +1142,240 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4">
-        <v>300000</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AE4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AF4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AG4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>86</v>
       </c>
       <c r="AK4" t="b">
         <v>0</v>
       </c>
       <c r="AL4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5">
+        <v>300000</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5" t="s">
         <v>87</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AF5" t="s">
         <v>88</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AG5">
+        <v>7</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" t="s">
         <v>90</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AJ5" t="s">
         <v>91</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
         <v>92</v>
       </c>
-      <c r="AS4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV4" t="s">
+      <c r="AM5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>97</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1231,6 +1386,8 @@
     <hyperlink ref="J3" r:id="rId4"/>
     <hyperlink ref="I4" r:id="rId5"/>
     <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
